--- a/flows/IAUM_fund_flow_data.xlsx
+++ b/flows/IAUM_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7225,6 +7225,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>6.0699</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>2.0286</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>4.0918</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>4.2774</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>8.628399999999999</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>5.4105</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
